--- a/biology/Histoire de la zoologie et de la botanique/André_Jean_Baptiste_Robineau-Desvoidy/André_Jean_Baptiste_Robineau-Desvoidy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Jean_Baptiste_Robineau-Desvoidy/André_Jean_Baptiste_Robineau-Desvoidy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Jean_Baptiste_Robineau-Desvoidy</t>
+          <t>André_Jean_Baptiste_Robineau-Desvoidy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Jean Baptiste Robineau-Desvoidy est un médecin, un entomologiste et un géologue français, né le 1er janvier 1799 à Saint-Sauveur-en-Puisaye et mort le 25 juin 1857 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Jean_Baptiste_Robineau-Desvoidy</t>
+          <t>André_Jean_Baptiste_Robineau-Desvoidy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la médecine à Paris mais passe sa thèse à Montpellier. Il commence à exercer dans sa ville natale. Il a une clientèle importante car il lui arrive[1] d’oublier de demander des honoraires. Il commence très tôt à s’intéresser à l’entomologie et notamment aux diptères. Sa première publication est consacrée aux tachinaires lui vaut les félicitations de ses anciens professeurs : Pierre André Latreille (1762-1833), André Marie Constant Duméril (1774-1860) et Henri-Marie Ducrotay de Blainville (1777-1850) qui en font un rapport élogieux que Georges Cuvier (1769-1832) lui-même signera. Robineau-Desvoidy s’intéresse dès lors à de multiples aspects de l’histoire naturelle : l’appareil olfactif des crustacés (1820), l’anatomie de la trompe des diptères (1821), l’anatomie de la cuticule des arthropodes (1822). Il dédie ses Recherches sur l’organisation vertébrale des crustacés, des arachnides et des insectes (1828) à Étienne Geoffroy Saint-Hilaire (1772-1844). En 1830, il fait paraître une étude sur les tachinaires dans laquelle il décrit 3 000 espèces. Outre ses travaux entomologiques, il fait aussi paraître des études géologiques et paléontologiques.
-Très solitaire et d’un tempérament agressif[2], il se heurte à Cuvier, à Latreille, à de Blainville, à Pierre Justin Marie Macquart (1778-1855). Il demande, dans son testament à être enterré dans sa propriété de Saint-Sauveur-en-Puisaye en présence uniquement de son cheval et de son chien. Sa très riche collection de diptères n’est offerte au Muséum national d'histoire naturelle qu’en 1931 dans un état de délabrement avancé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la médecine à Paris mais passe sa thèse à Montpellier. Il commence à exercer dans sa ville natale. Il a une clientèle importante car il lui arrive d’oublier de demander des honoraires. Il commence très tôt à s’intéresser à l’entomologie et notamment aux diptères. Sa première publication est consacrée aux tachinaires lui vaut les félicitations de ses anciens professeurs : Pierre André Latreille (1762-1833), André Marie Constant Duméril (1774-1860) et Henri-Marie Ducrotay de Blainville (1777-1850) qui en font un rapport élogieux que Georges Cuvier (1769-1832) lui-même signera. Robineau-Desvoidy s’intéresse dès lors à de multiples aspects de l’histoire naturelle : l’appareil olfactif des crustacés (1820), l’anatomie de la trompe des diptères (1821), l’anatomie de la cuticule des arthropodes (1822). Il dédie ses Recherches sur l’organisation vertébrale des crustacés, des arachnides et des insectes (1828) à Étienne Geoffroy Saint-Hilaire (1772-1844). En 1830, il fait paraître une étude sur les tachinaires dans laquelle il décrit 3 000 espèces. Outre ses travaux entomologiques, il fait aussi paraître des études géologiques et paléontologiques.
+Très solitaire et d’un tempérament agressif, il se heurte à Cuvier, à Latreille, à de Blainville, à Pierre Justin Marie Macquart (1778-1855). Il demande, dans son testament à être enterré dans sa propriété de Saint-Sauveur-en-Puisaye en présence uniquement de son cheval et de son chien. Sa très riche collection de diptères n’est offerte au Muséum national d'histoire naturelle qu’en 1931 dans un état de délabrement avancé.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Jean_Baptiste_Robineau-Desvoidy</t>
+          <t>André_Jean_Baptiste_Robineau-Desvoidy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur la tribu des culicides. Mém. Soc. Hist. Nat. Paris 3 : 390-413 (1827).
 Essai sur les myodaires. Mém. Pres. Div. Sav. Acad. R. Sci. Inst. Fr. 2 (2), 813 p. (1830) (lire en ligne).
